--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1190 +436,1190 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>商家名称</t>
+          <t>店铺名称</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>满返</t>
+          <t>经营品类</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>经营品类</t>
+          <t>返利信息</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>友喜鸭·喜到家</t>
+          <t>这家饼真好吃</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满25返12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>东北大碗麻辣烫-麻辣拌（东岸里店）</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>乇娘拌粉</t>
+          <t>炸鸡故事</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满30返12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>老外婆的菜炒出真的很好吃</t>
+          <t>273C（带梦陶然店）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>满26返13</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>beefoo coffee精品咖啡+三明治</t>
+          <t>hot burger(美式鲜牛…</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>异国料理</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>满20返7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>珠螺纪柳州螺蛳粉（北仑店）</t>
+          <t>hot burger（美式鲜牛肉堡）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>安徽太和板面</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>满20返11</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>酒夜王炸</t>
+          <t>兴宁桥烤鸡（邱隘店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>满20返15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>巧匠凉皮（热干面凉面）</t>
+          <t>F·CAFE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满25返12</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>咬不得高祖生煎</t>
+          <t>麻拌·干拌麻辣烫</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>蟹浔鮮·潮汕生腌熟醉（联丰店）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>异国料理</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满50返32</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>真味豆浆</t>
+          <t>蟹浔鲜·潮汕生腌熟醉（联丰店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>满50返32</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>潮汕猪肚鸡汤饭</t>
+          <t>Dancecream舞动绮缘</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满50返25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>名太腩·只卖一碗牛腩饭（高新店）</t>
+          <t>小野猫情趣成人用品店</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>M2蛋糕.面包</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>满30返8</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>满20返7</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>北山韩屋炸鸡店（印象城店）</t>
+          <t>麻拌·干拌麻辣烫</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1919酒类直供（宁波万达店）</t>
+          <t>小小重庆小面（七塔寺店）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>满30返5</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>永钰烤串</t>
+          <t>卖干锅赚钱的十年厨师</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>满100返30</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>满20返12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>永钰烤串·必出精品</t>
+          <t>叶问饼铺-传统烧饼专家</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>满50返15</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>满25返7</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>浅尝（小炒盖浇饭）</t>
+          <t>曹氏辣卤</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返12</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>港式烧腊快餐（高塘店）</t>
+          <t>拌面世家·老成都板凳面凉皮</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>满22返12</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>膳食园炒馅大包（万安路店）</t>
+          <t>汤城新语新中式茶饮（天水广场店）</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>满22返10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>吉小果新鲜水果</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>水果果切</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>吉小果（果切·果捞·灵峰路店）</t>
+          <t>二胖甘肃天水麻辣烫（宁大步行街店）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>水果果切</t>
+          <t>满20返7</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>重庆小面（小味道美食城店）透明餐厅</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满20返8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>储缘蛋糕（北仑店）</t>
+          <t>粤港烧鹅</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>满30返25</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>满20返8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>小小重庆小面（七塔寺店）</t>
+          <t>金稻谷·南昌牛肉拌粉</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返8</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>遇见小碗菜（慈溪店）</t>
+          <t>粤港烧鹅（城隍庙店）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返8</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>轩记老广味·港式烧腊（高塘店）</t>
+          <t>壹食（三明治、饭团、咖啡）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>满22返12</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返7</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>咬不得高祖生煎·简餐（宁波鄞州天智巷店）</t>
+          <t>壹食三明治饭团饮品</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>慢游咖啡</t>
+          <t>爱瑞可宠物用品超市</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>鲜花超市</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>牛轰轰鲜牛肉面</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满23返8</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>beefoo coffee精品咖啡+三明治</t>
+          <t>牛轰轰鲜牛肉面（高新宝龙店）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>满23返8</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>家宴·人间烟火气的小碗菜</t>
+          <t>藤野先生保密发货</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返11</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>秘制火焰烤肉饭透明餐厅</t>
+          <t>食光解馋坊</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满20返15</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>阿利番茄面</t>
+          <t>够粤·正宗隆江猪脚饭</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>满20返9</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满25返12</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>辣醉湘·湘川菜馆</t>
+          <t>胖虎手作汉堡</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>满28返13</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>正宗淮南牛肉汤馆</t>
+          <t>胖虎手作汉堡（天一店）</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>宠物用品仓储店（慈溪店）</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>满50返27</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>满20返7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>好湘礼（港隆广场店）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>满35返11</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>满60返21</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>酒小六Club现调鸡尾酒，洋酒，啤酒</t>
+          <t>黔耀来了肠旺粉</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>满50返27</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>满20返13</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>满20返10</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>西引の牛排手作意面焗饭</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>满25返9</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返13</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>钱锅锅水煮肉片·水煮鱼（小港店）</t>
+          <t>冰火岛·铁板烧烤</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>鲁爷·生炒鸡（骆驼店）</t>
+          <t>Existing炫客汉堡</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返12</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>奇多多披萨·意面·烩饭·沙拉（镇海店）</t>
+          <t>蟹掌柜·精品大闸蟹</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满50返30</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>奇多多披萨·意面·烩饭·沙（镇海店）</t>
+          <t>正宗淮南牛肉汤馆</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返16</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>沂蒙山炒鸡·鲜炒走地鸡</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返8</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>满30返8</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>满55返18</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>沂蒙山炒鸡·鲜炒走地鸡</t>
+          <t>大煌·稻田蛙</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返12</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>辣嘴大师兄螺蛳粉透明餐厅</t>
+          <t>酒小六Club现调鸡尾酒，洋酒，啤酒</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满50返27</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>稻香过桥米线（余姚店）</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返12</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>金稻谷·南昌牛肉拌粉</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>爱瑞可宠物用品超市</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鲜花超市</t>
+          <t>满20返11</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>够粤·正宗隆江猪脚饭</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满30返10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡</t>
+          <t>阿进炒饭·炒面</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>满25返10</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡（天一店）</t>
+          <t>炒翻天.炒饭.炒面（北仑店）透明餐厅</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>满25返10</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>好湘礼（港隆广场店）</t>
+          <t>秘制火焰烤肉饭透明餐厅</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>满60返21</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满20返7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>丞丞胖甘肃麻辣烫（海曙店）</t>
+          <t>钱锅锅水煮肉片·水煮鱼（小港店）</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>满20返8</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>阿进炒饭·炒面</t>
+          <t>川川婆娘·地道老川菜</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满25返15</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>炒翻天.炒饭.炒面（北仑店）透明餐厅</t>
+          <t>咬不得高祖生煎</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满30返13</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>牛家厨鲜牛肉面（骆驼店）</t>
+          <t>咬不得高祖生煎·简餐（宁波鄞州天智巷店）</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返13</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>牛家厨鲜牛肉面（骆驼店）透明餐厅</t>
+          <t>鲁爷·生炒鸡（骆驼店）</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返13</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>辣嘴·大狮兄螺蛳粉</t>
+          <t>回忆年代·80老盒饭</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满20返9</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>BOSS盖饭·爆炒木桶饭</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>满20返9</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>食里良仓·包子粥铺（东岸里店）</t>
+          <t>奇多多披萨·意面·烩饭·沙拉（镇海店）</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>满25返8</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返15</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>第9味大骨汤馄饨（职业技术学院店）</t>
+          <t>奇多多披萨·意面·烩饭·沙（镇海店）</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>满15返12</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返15</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>满25返10</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>满25返10</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
         </is>
       </c>
     </row>
@@ -1648,29 +1648,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>满25返10</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
@@ -1682,947 +1682,472 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>奶茶甜点</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>满25返13</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>奶茶甜点</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>袁小姐冒菜·小火锅</t>
+          <t>膳食园炒馅大包（万安路店）</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>满20返13</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>三米粥铺（悦邻中心店）</t>
+          <t>膳食园炒馅大包（万安路店）</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>满20返11</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>满20返13</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>卖干锅赚钱的十年厨师</t>
+          <t>巧匠凉皮（热干面凉面）</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BOSS盖饭·爆炒木桶饭</t>
+          <t>牛家厨鲜牛肉面（骆驼店）</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>满20返9</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返15</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>回忆年代·80老盒饭</t>
+          <t>牛家厨鲜牛肉面（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>满20返9</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返15</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>川婆娘·地道老川川菜</t>
+          <t>袁小姐冒菜·小火锅</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>川川婆娘·地道老川菜</t>
+          <t>三米粥铺（悦邻中心店）</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返11</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>蟹掌柜·精品大闸蟹</t>
+          <t>三米粥铺（悦邻中心店）</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>满50返30</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满20返11</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>二胖甘肃天水麻辣烫（宁大步行街店）</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>满30返8</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>兰州牛肉面</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>满20返6</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返8</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>牛蛙爆社（海曙店）</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>满59返28</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>黔耀来了肠旺粉</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满25返13</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡饭</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>宠物用品仓储店（慈溪店）</t>
+          <t>辣嘴·大狮兄螺蛳粉</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满20返12</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>牛轰轰鲜牛肉面（高新宝龙店）</t>
+          <t>辣嘴·大狮兄螺蛳粉</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>满23返8</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返12</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>藤野先生保密发货</t>
+          <t>辣嘴大师兄螺蛳粉透明餐厅</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>满20返12</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>牛轰轰鲜牛肉面</t>
+          <t>辣嘴大师兄螺蛳粉透明餐厅</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>满23返8</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满20返12</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>粤港烧鹅（城隍庙店）</t>
+          <t>1919酒类直供（宁波万达店）</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满30返5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>粤港烧鹅</t>
+          <t>1919酒类直供（宁波万达店）</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满30返5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>拌面世家·老成都板凳面凉皮</t>
+          <t>轩记老广味·港式烧腊（高塘店）</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满22返12</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>曹氏辣卤</t>
+          <t>港式烧腊快餐（高塘店）</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满22返12</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>M2蛋糕.面包</t>
+          <t>储缘蛋糕（北仑店）</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>满30返25</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>重庆小面板凳面（福泉路店）</t>
+          <t xml:space="preserve">名太腩·只卖一碗牛腩饭（高新店）
+</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>满30返12</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>小野猫情趣成人用品店</t>
+          <t>浅尝（小炒盖浇饭）</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>满30返20</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Dancecream舞动绮缘</t>
+          <t>珠螺纪柳州螺蛳粉（北仑店）</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>满50返25</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>满25返15</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>蟹浔鲜·潮汕生腌熟醉（联丰店）</t>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>满50返32</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>满23返10</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>蟹浔鮮·潮汕生腌熟醉（联丰店）</t>
+          <t>武汉麻辣鸭脖（上林坊店）</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>满50返32</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>异国料理</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>F·CAFE</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>咖啡</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>兴宁桥烤鸡（邱隘店）</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>满20返15</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>满20返12</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>咖啡</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>hot burger（美式鲜牛肉堡）</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>满20返7</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>hot burger(美式鲜牛…</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>满20返7</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>异国料理</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>冰火岛·铁板烧烤</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>烧烤夜宵</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Existing炫客汉堡</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>满30返12</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>日食己餐</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>满25返8</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>黄家桥包子铺</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>满18返7</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>⾯粉粥包</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>306巴斯克專門店</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>满30返15</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>奶茶甜点</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>这家饼真好吃</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>东北大碗麻辣烫-麻辣拌（东岸里店）</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
           <t>满25返10</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>炸鸡故事</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>满30返12</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>273C（带梦陶然店）</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>满30返15</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>咖啡</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>麻拌·干拌麻辣烫</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>满25返10</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>⽕锅冒菜</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>叶问饼铺-传统烧饼专家</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>满25返7</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>满22返10</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>奶茶甜点</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>壹食三明治饭团饮品</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>满20返7</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>壹食（三明治、饭团、咖啡）</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>满20返7</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>食光解馋坊</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>满20返15</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>西施·凉皮（宁波大学店）</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>满20返13</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>西施凉皮（宁波大学店）</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>大煌·稻田蛙</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>稻香过桥米线（余姚店）</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>满20返12</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>满30返10</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>电商产品</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>满25返16</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>奶茶甜点</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>御锦坊北京烤鸭</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>满30返12</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>御锦坊北京烤鸭店</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>满30返12</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
         </is>
       </c>
     </row>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,58 +538,58 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>真味豆浆</t>
+          <t>汤城新语新中式茶饮（天水广场店）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满22返10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满22返10</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>梁弄大糕呆呆美糕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>梁弄大糕呆呆美糕（清湖路店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,14 +616,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,24 +633,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满24返8</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满50返27</t>
+          <t>满20返12</t>
         </is>
       </c>
     </row>
@@ -708,41 +708,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满20返14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满20返14</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满30返12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -769,134 +769,133 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满30返12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>叙茶拾光ChaTime</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满30返8</t>
+          <t>满25返10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>叙茶拾光ChaTime</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满25返13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满30返8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>袁小姐冒菜·小火锅</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满30返10</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>储缘蛋糕（北仑店）</t>
+          <t>榴火火品质干层蛋糕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满30返25</t>
+          <t>满100返20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">名太腩·只卖一碗牛腩饭（高新店）
-</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -906,31 +905,31 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满20返10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>潮汕猪肚鸡汤饭</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返11</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>乇娘拌粉</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -940,14 +939,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满25返11</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -957,91 +956,142 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>满110返52</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FoodArtist食的作品</t>
+          <t>储缘蛋糕（北仑店）</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满30返25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>潮汕猪肚鸡汤饭</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>乇娘拌粉</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>烧烤夜宵</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>满23返10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>泰滋味·泰式海南鸡（
 高新店）</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>中餐便餐</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>满26返12</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>二姐美味小吃</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>中餐便餐</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>满23返10</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>中餐便餐</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>满30返13</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>中餐便餐</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>满20返10</t>
         </is>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>返利信息</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>满返差额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,7 @@
           <t>每单返利7</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +489,7 @@
           <t>每单返利7</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +507,9 @@
           <t>满20返12</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +527,9 @@
           <t>满20返15</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +547,9 @@
           <t>满50返32</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -551,6 +567,9 @@
           <t>满22返10</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -568,6 +587,9 @@
           <t>满20返10</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -585,6 +607,9 @@
           <t>满20返8</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -602,6 +627,9 @@
           <t>满20返8</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -619,6 +647,9 @@
           <t>满20返10</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -636,6 +667,9 @@
           <t>满20返13</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -653,6 +687,9 @@
           <t>满24返8</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -670,6 +707,9 @@
           <t>满25返8</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -684,8 +724,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满20返12</t>
-        </is>
+          <t>满50返27</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -704,6 +747,9 @@
           <t>满20返12</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -721,6 +767,9 @@
           <t>满20返14</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -738,6 +787,9 @@
           <t>满20返14</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -755,6 +807,9 @@
           <t>满30返12</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -772,6 +827,9 @@
           <t>满30返12</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -789,6 +847,9 @@
           <t>满25返10</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -806,6 +867,9 @@
           <t>满25返10</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -823,6 +887,9 @@
           <t>满25返13</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -840,6 +907,9 @@
           <t>满30返8</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -857,6 +927,9 @@
           <t>满20返10</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -874,6 +947,9 @@
           <t>满30返10</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -891,6 +967,9 @@
           <t>满100返20</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -908,6 +987,9 @@
           <t>满20返10</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -925,6 +1007,9 @@
           <t>满25返11</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -942,6 +1027,9 @@
           <t>满25返11</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -959,6 +1047,9 @@
           <t>满110返52</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -976,6 +1067,9 @@
           <t>满30返25</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -993,6 +1087,9 @@
           <t>满20返10</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1010,6 +1107,9 @@
           <t>满20返12</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1027,12 +1127,14 @@
           <t>满23返10</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（
-高新店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1044,6 +1146,9 @@
         <is>
           <t>满26返12</t>
         </is>
+      </c>
+      <c r="D36" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1062,6 +1167,9 @@
           <t>满23返10</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1079,6 +1187,9 @@
           <t>满30返13</t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1095,6 +1206,9 @@
         <is>
           <t>满20返10</t>
         </is>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,87 +514,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>兴宁桥烤鸡（邱隘店）</t>
+          <t>蟹浔鮮·潮汕生腌熟醉（联丰店）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>异国料理</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满50返32</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>蟹浔鮮·潮汕生腌熟醉（联丰店）</t>
+          <t>汤城新语新中式茶饮（天水广场店）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>异国料理</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满50返32</t>
+          <t>满22返10</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满22返10</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>梁弄大糕呆呆美糕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返8</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>梁弄大糕呆呆美糕（清湖路店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -614,21 +614,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>川婆娘·地道老川川菜</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>满25返15</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -694,41 +694,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满25返8</t>
+          <t>满50返27</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>酒小六Club现调鸡尾酒，洋酒，啤酒</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满50返27</t>
+          <t>满25返8</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -834,7 +834,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -864,117 +864,117 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>叙茶拾光ChaTime</t>
+          <t>川川婆娘·地道老川菜</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满25返15</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满30返8</t>
+          <t>满23返11</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>袁小姐冒菜·小火锅</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>榴火火品质干层蛋糕</t>
+          <t>饭香源农家小炒（小碗菜）</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满100返20</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1014,27 +1014,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满30返8</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1044,97 +1044,97 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满110返52</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>储缘蛋糕（北仑店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满30返25</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>潮汕猪肚鸡汤饭</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>乇娘拌粉</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满110返52</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>储缘蛋糕（北仑店）</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>满30返25</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>潮汕猪肚鸡汤饭</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1144,57 +1144,57 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>二姐美味小吃</t>
+          <t>乇娘拌粉</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满23返10</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1204,11 +1204,131 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>满26返12</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>二姐美味小吃</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>满23返10</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>满30返13</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>重庆小面（第6档口小味道美食城店）</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>满20返10</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>牛大碗牛腩饭牛腩煲（南商店）</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>猪小八</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>烧烤夜宵</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>满20返11</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>一煲口福</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>满26返12</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,10 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>每单返利7</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>满25返18</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,10 +488,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>每单返利7</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>满25返18</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,21 +518,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>蟹浔鮮·潮汕生腌熟醉（联丰店）</t>
+          <t>真味豆浆</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>异国料理</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满50返32</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -554,27 +558,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>张域小珀一碗酸奶</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>张域小珀一碗酸奶</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -584,57 +588,57 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>川婆娘·地道老川川菜</t>
+          <t>梁弄大糕呆呆美糕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>满20返8</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>梁弄大糕呆呆美糕（清湖路店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -644,102 +648,102 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返8</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>川婆娘·地道老川川菜</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满25返15</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满24返8</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满50返27</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满25返8</t>
+          <t>满24返8</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>稻香过桥米线（余姚店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -754,27 +758,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满25返8</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>稻香过桥米线（余姚店）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -784,57 +788,57 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -844,17 +848,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满30返12</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -864,37 +868,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满30返12</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>川川婆娘·地道老川菜</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -904,37 +908,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满23返11</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>川川婆娘·地道老川菜</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满25返15</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -944,137 +948,137 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满23返11</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>饭香源农家小炒（小碗菜）</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>叙茶拾光ChaTime</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满30返8</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满30返8</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>巧匠凉皮（热干面凉面）</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1084,77 +1088,77 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>袁小姐冒菜·小火锅</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满110返52</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>储缘蛋糕（北仑店）</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满30返25</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>潮汕猪肚鸡汤饭</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>乇娘拌粉</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1164,37 +1168,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>储缘蛋糕（北仑店）</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>满30返25</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>潮汕猪肚鸡汤饭</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1204,57 +1208,57 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>二姐美味小吃</t>
+          <t>乇娘拌粉</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满23返10</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>重庆小面（第6档口小味道美食城店）</t>
+          <t>胖子家酸菜鱼</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1274,7 +1278,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>牛大碗牛腩饭牛腩煲（南商店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1284,37 +1288,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满26返12</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>猪小八</t>
+          <t>二姐美味小吃</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>满20返11</t>
+          <t>满23返10</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>一煲口福</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1324,11 +1328,71 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>重庆小面（第6档口小味道美食城店）</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>牛大碗牛腩饭牛腩煲（南商店）</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>韩之味.石锅拌饭</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>满25返9</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满25返18</t>
+          <t>满20返17</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -488,111 +488,111 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>满25返18</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>冒千味成都火锅麻辣烫..</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满28返10</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>真味豆浆</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
+          <t>兴宁桥烤鸡（邱隘店）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满22返10</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>张域小珀一碗酸奶</t>
+          <t>真味豆浆</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>张域小珀一碗酸奶</t>
+          <t>汤城新语新中式茶饮（天水广场店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满22返10</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -798,47 +798,47 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满30返12</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满30返12</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>川川婆娘·地道老川菜</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满25返15</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -908,37 +908,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满23返11</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>川川婆娘·地道老川菜</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -948,97 +948,97 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满23返11</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>叙茶拾光ChaTime</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>叙茶拾光ChaTime</t>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>巧匠凉皮（热干面凉面）</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1048,17 +1048,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满30返8</t>
+          <t>满35返15</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>巧匠凉皮（热干面凉面）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1088,91 +1088,91 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>袁小姐冒菜·小火锅</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满40返19</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满110返52</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
@@ -1198,27 +1198,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>潮汕猪肚鸡汤饭</t>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满23返10</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>乇娘拌粉</t>
+          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1228,37 +1228,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>满26返12</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>胖子家酸菜鱼</t>
+          <t>二姐美味小吃</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满23返10</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>二姐美味小吃</t>
+          <t>韩之味.石锅拌饭</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1308,37 +1308,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满80返37</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>重庆小面（第6档口小味道美食城店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1348,17 +1348,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返9</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>牛大碗牛腩饭牛腩煲（南商店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1368,31 +1368,51 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满25返9</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>韩之味.石锅拌饭</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>满25返9</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>电商产品</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>满78返35</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,32 +458,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>吉小果新鲜水果</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>水果果切</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满20返17</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>吉小果（果切·果捞·灵峰路店）</t>
+          <t>兴宁桥烤鸡（邱隘店）</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>水果果切</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,47 +498,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>冒千味成都火锅麻辣烫..</t>
+          <t>汤城新语新中式茶饮（天水广场店）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满28返10</t>
+          <t>满22返10</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>兴宁桥烤鸡（邱隘店）</t>
+          <t>梁弄大糕呆呆美糕</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,217 +548,217 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返8</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>真味豆浆</t>
+          <t>梁弄大糕呆呆美糕（清湖路店）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满20返8</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满22返10</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>满24返8</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>川婆娘·地道老川川菜</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>满25返8</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>稻香过桥米线（余姚店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返11</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满24返8</t>
+          <t>满30返12</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满30返12</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满25返8</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -778,27 +778,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>稻香过桥米线（余姚店）</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满23返11</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,17 +828,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -848,217 +848,217 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满20返8</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>川川婆娘·地道老川菜</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满23返11</t>
+          <t>满50返23</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>袁小姐冒菜·小火锅</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满50返23</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>叙茶拾光ChaTime</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满40返20</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>巧匠凉皮（热干面凉面）</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满110返52</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满35返15</t>
+          <t>满23返10</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满26返12</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1098,27 +1098,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
+          <t>韩之味.石锅拌饭</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,291 +1128,91 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满25返8</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满40返19</t>
+          <t>满30返20</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>鑫悦衢州鸭头</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满110返52</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>储缘蛋糕（北仑店）</t>
+          <t>哆味鲜烧爆汁饭</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满30返25</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>嫣然苡茉（柳州城中万达店）</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>满25返22</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>满20返15</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>满26返12</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>二姐美味小吃</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>满23返10</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>满30返13</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>韩之味.石锅拌饭</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>满25返10</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>BELLACAKE蛋糕·甜品</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>满80返37</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>满25返9</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>满25返9</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>电商产品</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>满30返15</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>电商产品</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>满78返35</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,62 +468,62 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>兴宁桥烤鸡（邱隘店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满22返10</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>梁弄大糕呆呆美糕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>梁弄大糕呆呆美糕（清湖路店）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,17 +548,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,17 +568,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,31 +588,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返18</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -628,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满24返8</t>
+          <t>满24返10</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满50返30</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -668,37 +668,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满25返8</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>稻香过桥米线（余姚店）</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>九幺妹·现炒湘菜（海曙店）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,17 +708,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满20返11</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -728,57 +728,57 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>鲁爷·生炒鸡（骆驼店）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满23返13</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满23返11</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -818,27 +818,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -848,57 +848,57 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>袁小姐冒菜·小火锅</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满20返8</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满50返25</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>酒夜王炸</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -908,77 +908,77 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满50返23</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>袁小姐冒菜·小火锅</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满50返23</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满110返52</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满20返18</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1008,17 +1008,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满40返20</t>
+          <t>满26返12</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1028,57 +1028,57 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满110返52</t>
+          <t>满50返25</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满23返10</t>
+          <t>满30返23</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1088,97 +1088,97 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满30返18</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>韩之味.石锅拌饭</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满25返8</t>
+          <t>满30返18</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>鑫悦衢州鸭头</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满30返20</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>鑫悦衢州鸭头</t>
+          <t>哆味鲜烧爆汁饭</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满25返15</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>哆味鲜烧爆汁饭</t>
+          <t>皖北地锅鸡·炒鸡</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1188,31 +1188,171 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>嫣然苡茉（柳州城中万达店）</t>
+          <t>新重庆鸡公煲（翠柏店）</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满25返22</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>乇娘拌粉（世纪东方店）</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>满20返18</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>皖北地锅鸡（炒鸡）透明餐厅</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>思念酒馆（现调鸡尾酒）</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>思念酒馆·现调鸡尾酒</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>隆江猪脚饭（慈海南路店）</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>满25返20</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>隆江猪脚饭（慈海南路店）</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>满25返20</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>奉化牛肉面（双面煎·海鲜面）</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>吉小果（果切·果捞·灵峰路店）</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>水果果切</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满15返10</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -478,32 +478,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -518,7 +518,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -538,47 +538,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>胖虎手作汉堡</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,137 +588,137 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>胖虎手作汉堡（天一店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返18</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满24返10</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满50返30</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返18</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满24返10</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>九幺妹·现炒湘菜（海曙店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -738,27 +738,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>鲁爷·生炒鸡（骆驼店）</t>
+          <t>九幺妹·现炒湘菜（海曙店）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满23返13</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,17 +828,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -858,21 +858,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>袁小姐冒菜·小火锅</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满110返52</t>
+          <t>满110返55</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满20返18</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1138,27 +1138,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>鑫悦衢州鸭头</t>
+          <t>新重庆鸡公煲（翠柏店）</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>哆味鲜烧爆汁饭</t>
+          <t>乇娘拌粉（世纪东方店）</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>皖北地锅鸡·炒鸡</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1198,47 +1198,47 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>新重庆鸡公煲（翠柏店）</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满20返18</t>
+          <t>满20返7</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>皖北地锅鸡（炒鸡）透明餐厅</t>
+          <t>湘巴佬·川川湘菜馆（镇海店）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1248,42 +1248,42 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满24返12</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>虾师傅·虾滑饭（北仑店）</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1298,27 +1298,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>隆江猪脚饭（慈海南路店）</t>
+          <t>茶禅悦·热着饮悦暖心</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>满25返20</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>隆江猪脚饭（慈海南路店）</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1328,17 +1328,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>满25返20</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>奉化牛肉面（双面煎·海鲜面）</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1348,11 +1348,131 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>西北阁手抓饭·炒面</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>满20返14</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>西北阁手抓饭·炒面</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>满20返14</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>饭小七·酱香鸡煲排骨煲</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>隆江猪脚饭</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>百味轩私房川川湘菜</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>食色（红烧牛肉面·大步街店）</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,127 +658,127 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满20返18</t>
+          <t>满24返10</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满24返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>九幺妹·现炒湘菜（海曙店）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>九幺妹·现炒湘菜（海曙店）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -798,107 +798,107 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满50返25</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满50返25</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>酒夜王炸</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -908,97 +908,97 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满110返55</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满26返12</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满110返55</t>
+          <t>满50返25</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满30返23</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1008,67 +1008,67 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满30返18</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满50返25</t>
+          <t>满30返18</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>新重庆鸡公煲（翠柏店）</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满30返23</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1078,67 +1078,67 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满30返18</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满30返18</t>
+          <t>满20返7</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>新重庆鸡公煲（翠柏店）</t>
+          <t>湘巴佬·川川湘菜馆（镇海店）</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1148,22 +1148,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满24返12</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1178,301 +1178,61 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>百味轩私房川川湘菜</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>食色（红烧牛肉面·大步街店）</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>老巷子小锅米线（宁波店）</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>湘巴佬·川川湘菜馆（镇海店）</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>满24返12</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>虾师傅·虾滑饭（北仑店）</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>满20返13</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>满20返15</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>茶禅悦·热着饮悦暖心</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>奶茶甜点</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>满13返13</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>西北阁手抓饭·炒面</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>满20返14</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>西北阁手抓饭·炒面</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>满20返14</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>西北阁手抓饭·炒面</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>满20返14</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>西北阁手抓饭·炒面</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>满20返14</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>饭小七·酱香鸡煲排骨煲</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>隆江猪脚饭</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>百味轩私房川川湘菜</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>吉小果（果切·果捞·灵峰路店）</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>水果果切</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满15返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -478,21 +478,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -518,67 +518,67 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>胖虎手作汉堡</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡</t>
+          <t>胖虎手作汉堡（天一店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡（天一店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,17 +608,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,157 +628,157 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满24返10</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满24返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>九幺妹·现炒湘菜（海曙店）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,57 +808,57 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满50返25</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>酒夜王炸</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满50返25</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -878,41 +878,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满110返55</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满110返55</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1078,12 +1078,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>乇娘拌粉（世纪东方店）</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1118,87 +1118,87 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>湘巴佬·川川湘菜馆（镇海店）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满24返12</t>
+          <t>满20返7</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+          <t>湘巴佬·川川湘菜馆（镇海店）</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满24返12</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>百味轩私房川川湘菜</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1208,31 +1208,211 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>西北阁手抓饭·炒面</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>满20返11</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>百味轩私房川川湘菜</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>食色（红烧牛肉面·大步街店）</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>绍兴小笼</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>肉上头煲仔饭</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>满20返9</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>肉上头煲仔饭</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>老巷子小锅米线（宁波店）</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>满20返10</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>口口香北京片皮烤鸭</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>满25返10</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,107 +638,107 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满24返10</t>
+          <t>满20返18</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满24返10</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -758,107 +758,107 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满50返25</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>酒夜王炸</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满50返25</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>酒夜王炸</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -878,41 +878,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满110返55</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满110返55</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -1058,32 +1058,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>新重庆鸡公煲（翠柏店）</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1098,32 +1098,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满20返7</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1138,17 +1138,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>百味轩私房川川湘菜</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1158,7 +1158,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>湘巴佬·川川湘菜馆（镇海店）</t>
+          <t>食色（红烧牛肉面·大步街店）</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1168,37 +1168,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满24返12</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>西北阁手抓饭·炒面</t>
+          <t>老巷子小锅米线（宁波店）</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>西北阁手抓饭·炒面</t>
+          <t>口口香北京片皮烤鸭</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1228,22 +1228,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满20返11</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>百味轩私房川川湘菜</t>
+          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1258,12 +1258,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
+          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1272,146 +1272,6 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>绍兴小笼</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>⾯粉粥包</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>满20返13</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>肉上头煲仔饭</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>满20返9</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>肉上头煲仔饭</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>老巷子小锅米线（宁波店）</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>口口香北京片皮烤鸭</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>满25返10</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
         <v>13</v>
       </c>
     </row>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,47 +458,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>衢州鸭头·鸭脖·卤味小吃</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满28返12</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>冒千味成都火锅麻辣烫..</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满28返10</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>冒千味成都火锅麻辣烫·冒菜</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,42 +508,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满28返12</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,17 +568,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡（天一店）</t>
+          <t>衢州鸭头鸭脖卤味小吃（联丰中路店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,117 +588,117 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满28返12</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>恋芝糦手作披萨</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满20返18</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>胖虎手作汉堡</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满24返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>胖虎手作汉堡（天一店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,82 +708,82 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满22返18</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满24返10</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,57 +808,57 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满50返25</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>酒夜王炸</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -888,37 +888,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满110返55</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -928,67 +928,67 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满50返25</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满50返25</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>重庆小面（小味道美食城店）透明餐厅</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满30返23</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -998,117 +998,117 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
+          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满30返18</t>
+          <t>满26返12</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满30返18</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>重庆小面（第6档口小味道美食城店）</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满30返23</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1118,12 +1118,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+          <t>乇娘拌粉（世纪东方店）</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1138,87 +1138,87 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>百味轩私房川川湘菜</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返7</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>老巷子小锅米线（宁波店）</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>口口香北京片皮烤鸭</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1228,42 +1228,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
+          <t>百味轩私房川川湘菜</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1273,6 +1273,186 @@
       </c>
       <c r="D42" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>食色（红烧牛肉面·大步街店）</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>绍兴小笼</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>老巷子小锅米线（宁波店）</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>口口香北京片皮烤鸭</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>百味轩私房川湘菜（慈溪店）</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>满25返10</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>花生烘焙·蛋糕·甜品</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>满30返10</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>花生烘焙（甜品·蛋糕）</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>满30返10</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,47 +598,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>胖虎手作汉堡</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>恋芝糦手作披萨</t>
+          <t>胖虎手作汉堡（天一店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,17 +648,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡（天一店）</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,117 +688,117 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满22返18</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满24返10</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满22返18</t>
+          <t>满50返30</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满24返10</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -818,27 +818,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -888,37 +888,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满26返12</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -928,82 +928,82 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满50返25</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满30返23</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>重庆小面（小味道美食城店）透明餐厅</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1018,47 +1018,47 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满20返7</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>重庆小面（第6档口小味道美食城店）</t>
+          <t>食色（红烧牛肉面·大步街店）</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满30返23</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1098,7 +1098,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
+          <t>老巷子小锅米线（宁波店）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满25返12</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）</t>
+          <t>口口香北京片皮烤鸭</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,331 +1128,131 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>百味轩私房川湘菜（慈溪店）</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+          <t>花生烘焙·蛋糕·甜品</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>西北阁手抓饭·炒面</t>
+          <t>花生烘焙（甜品·蛋糕）</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>西北阁手抓饭·炒面</t>
+          <t>喜菓然果切水果捞礼盒（福业街店）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>水果果切</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>百味轩私房川川湘菜</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
         <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>绍兴小笼</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>⾯粉粥包</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>满20返13</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>老巷子小锅米线（宁波店）</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>口口香北京片皮烤鸭</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>百味轩私房川湘菜（慈溪店）</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>满25返10</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>花生烘焙·蛋糕·甜品</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>满30返10</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>花生烘焙（甜品·蛋糕）</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>满30返10</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,107 +458,107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>衢州鸭头·鸭脖·卤味小吃</t>
+          <t>吉小果新鲜水果</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>水果果切</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满28返12</t>
+          <t>满25返18</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>冒千味成都火锅麻辣烫..</t>
+          <t>衢州鸭头·鸭脖·卤味小吃</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>满28返10</t>
+          <t>满28返12</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>冒千味成都火锅麻辣烫·冒菜</t>
+          <t>冒千味成都火锅麻辣烫..</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满28返12</t>
+          <t>满28返10</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>冒千味成都火锅麻辣烫·冒菜</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满28返12</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>衢州鸭头鸭脖卤味小吃（联丰中路店）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,97 +568,97 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满28返12</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>衢州鸭头鸭脖卤味小吃（联丰中路店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满28返12</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>恋芝糦手作披萨</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满30返10</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满24返10</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡（天一店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满50返30</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,137 +688,137 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满22返18</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满24返10</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满50返30</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满26返12</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满30返23</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满20返7</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,431 +828,127 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>花生烘焙·蛋糕·甜品</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满25返13</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>12</v>
-      </c>
+          <t>每单返利7</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>花生烘焙（甜品·蛋糕）</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满25返13</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>12</v>
-      </c>
+          <t>每单返利7</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>驴肉火烧.大饼卷肉</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满20返20</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>羊洋洋·黄膘牛排·草原蒸羊排</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满40返37</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>莉婷大排档·本地小海鲜·农家菜</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满30返23</t>
+          <t>满15返10</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>满20返15</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>思念酒馆·现调鸡尾酒</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>满20返15</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>M2蛋糕·面包</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>满20返7</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>满20返15</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>绍兴小笼</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>⾯粉粥包</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>满20返13</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>老巷子小锅米线（宁波店）</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>口口香北京片皮烤鸭</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>百味轩私房川湘菜（慈溪店）</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>满25返10</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>花生烘焙·蛋糕·甜品</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>满30返10</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>花生烘焙（甜品·蛋糕）</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>满30返10</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>喜菓然果切水果捞礼盒（福业街店）</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>水果果切</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,47 +458,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>吉小果新鲜水果</t>
+          <t>鑫悦衢州鸭头</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>水果果切</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满25返18</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>衢州鸭头·鸭脖·卤味小吃</t>
+          <t>吉小果新鲜水果</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>水果果切</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>满28返12</t>
+          <t>满15返10</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>冒千味成都火锅麻辣烫..</t>
+          <t>黄手艺冒菜（高新店）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,17 +508,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满28返10</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>冒千味成都火锅麻辣烫·冒菜</t>
+          <t>桥头排骨（宁大云创小镇店）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,37 +528,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满28返12</t>
+          <t>满20返16</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>牧牛娃隆江猪脚饭</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>衢州鸭头鸭脖卤味小吃（联丰中路店）</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,117 +568,117 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满28返12</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>恋芝糦手作披萨</t>
+          <t>黄家桥包子铺</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满30返10</t>
+          <t>满18返7</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>客尚喜桥头排骨（宁大云创小镇店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满24返10</t>
+          <t>满20返16</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>酒夜王炸</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满50返30</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>Existing炫客汉堡</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,77 +688,77 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>哆味鲜烧爆汁饭</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满25返16</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>胖妈妈麻辣拌（宁大店）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>高家格拉条透明餐厅</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>牛家厨鲜牛肉面（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,62 +768,62 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满26返12</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>喜姐炸串（礼嘉桥店）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满30返23</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>秦捌里</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满20返7</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -838,117 +838,1617 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>伍小酥肉蟹煲·鸡爪煲（恒一店）</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>花生烘焙·蛋糕·甜品</t>
+          <t>濮阳裹凉皮·肉夹馍</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>每单返利7</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>满20返14</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>花生烘焙（甜品·蛋糕）</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>每单返利7</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>满25返15</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>驴肉火烧.大饼卷肉</t>
+          <t>喜菓然果切水果捞礼盒（福业街店）</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>水果果切</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满20返20</t>
+          <t>满25返12</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>羊洋洋·黄膘牛排·草原蒸羊排</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满40返37</t>
+          <t>满26返12</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>莉婷大排档·本地小海鲜·农家菜</t>
+          <t>北山韩屋炸鸡店（印象城店）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>满25返16</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>绍兴小笼</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>满30返13</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>百思味黄焖鸡米饭（五乡…</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>佳逸云南过桥米线</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>奇多多披萨·意面·烩饭·沙（镇海店）</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>满30返15</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>哆味鲜烧爆汁饭</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>满25返16</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>饭香木桶饭</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>湘巴佬·川川湘菜馆（镇海店）</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>满24返15</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>卤汁深卤味坊（洪塘店）</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>餐小福嗜啫煲·酸菜鱼（宏泰店）</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>⽕锅冒菜</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>满25返15</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>肉上头煲仔饭</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>漠漠家肉夹馍</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>烧烤夜宵</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>满50返25</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>花生烘焙·蛋糕·甜品</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>每单返利7</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FoodArtist食的作品</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>咬不得高祖生煎</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>黄家桥包子铺（翔云店）</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>满20返11</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>旺记廣式茶餐厅</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>三米粥铺（悦邻中心店）</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>无敌爪爪（秘制凤爪.）</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>满30返15</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>不止麻辣拌·麻辣串</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>满26返12</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>西北阁手抓饭·炒面</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>满20返14</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>衢州鸭头·鸭脖·卤味小吃</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>满28返12</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>绍兴小笼</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>满30返13</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>沙县小吃（亚洲之窗店）</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>浅尝（小炒盖浇饭）</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>满25返13</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>猪小八</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>烧烤夜宵</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>满20返11</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>慕玛披萨（联丰中路店）</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>满25返13</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>满50返30</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>牛家厨鲜牛肉面（骆驼店）</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>满30返15</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>M2蛋糕·面包</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>满20返7</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>鲁爷·生炒鸡（骆驼店）</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>友喜鸭·喜到家</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>小辣椒湘菜</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>今日小饭堂</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>满15返10</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D61" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>杨铭宇黄焖鸡米饭（云创店）</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>满25返14</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>安徽太和板面</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>田井·丼饭·肥牛饭（联胜店）</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>满20返14</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>满30返18</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>北山韩屋炸鸡店（印象城店）</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>满25返16</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>花生烘焙（甜品·蛋糕）</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>每单返利7</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BELLACAKE蛋糕·甜品</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>满30返23</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>田井·丼饭·肥牛饭</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>慕玛披萨（联丰店）</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>满25返13</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>奇多多披萨·意面·烩饭·沙拉（镇海店）</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>满30返15</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>叙茶拾光ChaTime</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>奶茶甜点</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>满25返13</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>慢游咖啡</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>咖啡</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>测试 (门店名称)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>肉上头煲仔饭</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>满20返14</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>食色（红烧牛肉面·大步街店）</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>重庆小面（小味道美食城店）透明餐厅</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>皖北地锅鸡（炒鸡）透明餐厅</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>川渝嘎嘎酱骨饭（海曙店）</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>云之滇·野生菌纯肉炒饭</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>满15返12</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>无敌爪爪秘制凤爪</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>满30返15</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>一煲口福</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>麓山村宝藏湘菜（慈溪店）</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>满25返10</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>食野·SAYYEAH·创意轻食（会展中心店）</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>隆江猪脚饭</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>满20返18</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>兴宁桥烤鸡（邱隘店）</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>满20返8</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>陶记渔粉</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>日食己餐</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>满25返10</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>辣嘴·大狮兄螺蛳粉</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>满25返16</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>重庆小面（第6档口小味道美食城店）</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>辣嘴大师兄螺蛳粉透明餐厅</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>满25返16</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>三米粥铺（悦邻中心店）</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>真味豆浆</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>满20返14</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>乇娘拌粉（世纪东方店）</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>冒千味成都火锅麻辣烫..</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>⽕锅冒菜</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>井太猫·招牌烧肉饭·肥牛饭（海曙店）</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>满20返11</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>一家冲出亚洲的干锅店（文苑店）</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>喜姐炸串（慈溪匡堰大道店）</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>满25返10</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>仙家·秘汁烤鸡（清水桥路店）</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>花甲粉丝（洪塘分店）</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>特色小吃</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>满20返11</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45809.47886574074</v>
+        <v>45839.40471064814</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45813.3941087963</v>
+        <v>45843.45313657408</v>
       </c>
     </row>
     <row r="4">
@@ -530,13 +530,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45809.470625</v>
+        <v>45839.40408564815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>柳巷.螺蛳粉（天伦广场店）</t>
+          <t>熊子文烙饼卷肉（宁大步行街店）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -546,37 +546,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45809.47920138889</v>
+        <v>45843.4528125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>柳巷.螺蛳粉（天伦广场店）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45809.4790162037</v>
+        <v>45839.41208333334</v>
       </c>
     </row>
     <row r="7">
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45809.47857638889</v>
+        <v>45839.41226851852</v>
       </c>
     </row>
     <row r="8">
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45809.47832175926</v>
+        <v>45839.40521990741</v>
       </c>
     </row>
     <row r="9">
@@ -638,14 +638,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满20返17</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45809.47386574074</v>
+        <v>45839.41168981481</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45809.47732638889</v>
+        <v>45839.40952546296</v>
       </c>
     </row>
     <row r="11">
@@ -691,7 +691,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45809.47716435185</v>
+        <v>45839.40491898148</v>
       </c>
     </row>
     <row r="12">
@@ -714,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45809.47747685185</v>
+        <v>45839.41185185185</v>
       </c>
     </row>
     <row r="13">
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45809.47695601852</v>
+        <v>45839.4103587963</v>
       </c>
     </row>
     <row r="14">
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45809.47681712963</v>
+        <v>45839.41025462963</v>
       </c>
     </row>
     <row r="15">
@@ -783,59 +783,59 @@
         <v>6</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45809.47408564815</v>
+        <v>45839.40577546296</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>栖头鸭·鸭脖卤味（宁波鼓楼店）</t>
+          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45772.41483796296</v>
+        <v>45852.69780092593</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>栖头鸭·鸭脖卤味（宁波鼓楼店）</t>
+          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45809.47980324074</v>
+        <v>45852.69980324074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>陈文鼎·黑糖珍珠奶茶（鄞州万达店）</t>
+          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -845,20 +845,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满12返12</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45821.62165509259</v>
+        <v>45852.69890046296</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>陈文鼎·黑糖珍珠奶茶（鄞州万达店）</t>
+          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -868,434 +868,434 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满12返12</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45825.66188657407</v>
+        <v>45852.7002662037</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>老上海葱油捞鸡香辣口水鸡</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45809.47288194444</v>
+        <v>45839.41070601852</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州钱湖天地店）</t>
+          <t>考拉可可成人</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45809.47098379629</v>
+        <v>45839.41145833334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州钱湖天地店）</t>
+          <t>熊先生情趣成人</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45809.47107638889</v>
+        <v>45839.41136574074</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LINLEE·林里手打柠檬茶（海曙天一广场店）</t>
+          <t>考拉可可情趣成人用品(镇海庄市店)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45809.47253472222</v>
+        <v>45839.41128472222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LINLEE·林里手打柠檬茶（海曙天一广场店）</t>
+          <t>考拉可可情趣成人用品(镇海店)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45809.47266203703</v>
+        <v>45839.41118055556</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
+          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45809.4722800926</v>
+        <v>45852.4187037037</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
+          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45809.47237268519</v>
+        <v>45852.41721064815</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州钱湖天地店）</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45809.47197916666</v>
+        <v>45839.40532407408</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州钱湖天地店）</t>
+          <t>沈记东北锅包肉</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45809.47207175926</v>
+        <v>45842.41239583334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LINLEE·林里手打柠檬茶（海曙天一广场店）</t>
+          <t>沈记东北锅包肉（浙大宁波理工云创店）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45809.47149305556</v>
+        <v>45842.41112268518</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LINLEE·林里手打柠檬茶（海曙天一广场店）</t>
+          <t>天元砂锅（洋山店）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返11</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45809.47178240741</v>
+        <v>45806.80737268519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>大吉东北饭包·大碴粥</t>
+          <t>多巴胺女王成人情趣用品</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45827.40732638889</v>
+        <v>45839.40849537037</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>温州小吃·糯米饭·炒粉干·瘦肉丸</t>
+          <t>柳巷螺蛳粉（天伦广场店）</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满30返12</t>
+          <t>满25返15</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45827.40777777778</v>
+        <v>45839.40891203703</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>渝拌川重庆凉拌菜（明楼街道店）</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45809.47626157408</v>
+        <v>45838.40275462963</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>考拉可可成人</t>
+          <t>渝拌川重庆凉拌菜（朝晖路店）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满25返10</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45809.47609953704</v>
+        <v>45838.40118055556</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>熊先生情趣成人</t>
+          <t>阿拌达·拌鸡腿(北仑店)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45809.47596064815</v>
+        <v>45839.40376157407</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海庄市店)</t>
+          <t>阿拌达·拌鸡腿(北仑店)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45809.47583333333</v>
+        <v>45839.40354166667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海店)</t>
+          <t>韩记江西农家小炒</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返17</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45809.47570601852</v>
+        <v>45841.40256944444</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>老上海葱油捞鸡口水鸡</t>
+          <t>饱好吃·鲜肉包子铺</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1305,20 +1305,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返17</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45809.47324074074</v>
+        <v>45844.50350694444</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>港岛记·茶餐厅（宁波世纪大道店）</t>
+          <t>华三爷拌面（明空间店）</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1328,43 +1328,43 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返12</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45824.60724537037</v>
+        <v>45849.46627314815</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>何包记|小笼包•撒汤•粥(高新店）</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45809.4753125</v>
+        <v>45852.5428587963</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>港岛记·茶餐厅（宁波世纪大道店）</t>
+          <t>紫燕百味鸡（蓝天路店）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1374,20 +1374,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>满20返11</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45792.40579861111</v>
+        <v>45847.81822916667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>港岛记·茶餐厅（宁波世纪大道店）</t>
+          <t>紫燕百味鸡（蓝天路店）</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1404,13 +1404,13 @@
         <v>10</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45792.48741898148</v>
+        <v>45847.8184375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>董记口水鸡</t>
+          <t>饱好吃</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1420,426 +1420,60 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返17</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45799.69478009259</v>
+        <v>45848.46263888889</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>柚子家萧县卷面皮·凉皮肉夹馍</t>
+          <t>向海兰</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满25返17</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45804.57858796296</v>
+        <v>45852.39908564815</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>柚子家萧县卷面皮·凉皮</t>
+          <t>蜜雪冰城(天一广场店)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满10返10</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45804.58121527778</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>沈记东北锅包肉</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>45806.52909722222</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>沈记东北锅包肉（浙大宁波理工云创店）</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>45806.52890046296</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>天元砂锅（洋山店）</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>满20返11</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>45806.80737268519</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>多巴胺女王成人情趣用品</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>满20返13</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>7</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>45806.97083333333</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>鲜果林·鲜榨果汁（姜山万达店）</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>奶茶甜点</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>满15返13</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>45811.62278935185</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>金牌烧鸭面(永达西路店)</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>满20返12</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>45813.65133101852</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>久穆兰州牛肉面（兴庄路店）</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>满20返12</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>45820.40805555556</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>柳巷螺蛳粉（天伦广场店）</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>满25返15</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>45824.59240740741</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>牛培·半斤牛腩(百丈街道店)</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>满20返12</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>45821.43077546296</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>大熊炸鸡</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>满15返13</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>45825.39898148148</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>随心·盖饭</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>45827.41092592593</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>大富炸货（拌粉·酸辣粉·来福士店）</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>每单返利7</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" s="2" t="n">
-        <v>45827.52538194445</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>大富炸货（拌粉·酸辣粉·来福士店）</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>满21返10</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>11</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>45827.52546296296</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>大富炸货铺(来福士店)</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>满21返10</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>45827.52476851852</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>大富炸货铺(来福士店)</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>满21返10</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>11</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>45827.52483796296</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>粤之味隆江猪脚饭</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>满18返12</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>6</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>45827.53721064814</v>
+        <v>45852.58827546296</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉（宁大步行街店）</t>
+          <t>熊子文烙饼卷肉</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,20 +523,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45839.40408564815</v>
+        <v>45853.63076388889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉（宁大步行街店）</t>
+          <t>熊子文烙饼卷肉</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -546,20 +546,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45843.4528125</v>
+        <v>45853.63125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>柳巷.螺蛳粉（天伦广场店）</t>
+          <t>熊子文烙饼卷肉（宁大步行街店）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -569,20 +569,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45839.41208333334</v>
+        <v>45839.40408564815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>熊子文烙饼卷肉（宁大步行街店）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -592,20 +592,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45839.41226851852</v>
+        <v>45843.4528125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>熊子文烙饼卷肉（宁大步行街店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -615,66 +615,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45839.40521990741</v>
+        <v>45853.63173611111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>阿四饭店</t>
+          <t>熊子文烙饼卷肉（宁大步行街店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返17</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45839.41168981481</v>
+        <v>45853.63204861111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>阿四海鲜饭店（商务套餐店）</t>
+          <t>柳巷.螺蛳粉（天伦广场店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满30返13</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45839.40952546296</v>
+        <v>45839.41208333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>鸡柳大人（鸡柳·年糕·薯条·云创店）</t>
+          <t>柳巷.螺蛳粉（天伦广场店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -684,20 +684,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满30返15</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45839.40491898148</v>
+        <v>45853.4264699074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>鸡柳大人（云创店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -707,20 +707,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45839.41185185185</v>
+        <v>45839.41226851852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>鸡柳大人（镇海店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -730,20 +730,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45839.4103587963</v>
+        <v>45853.63796296297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>鸡柳大人（镇海店）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -753,140 +753,140 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满25返11</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45839.41025462963</v>
+        <v>45839.40521990741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>阿四海鲜（沧海路店）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45839.40577546296</v>
+        <v>45853.63778935185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
+          <t>阿四饭店</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返17</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45852.69780092593</v>
+        <v>45839.41168981481</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
+          <t>阿四海鲜饭店（商务套餐店）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45852.69980324074</v>
+        <v>45839.40952546296</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
+          <t>阿四海鲜饭店（商务套餐店）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返17</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45852.69890046296</v>
+        <v>45853.64087962963</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
+          <t>鸡柳大人（鸡柳·年糕·薯条·云创店）</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45852.7002662037</v>
+        <v>45839.40491898148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>鸡柳大人（云创店）</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -898,18 +898,18 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45839.41070601852</v>
+        <v>45839.41185185185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>考拉可可成人</t>
+          <t>鸡柳大人（镇海店）</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -921,18 +921,18 @@
         <v>7</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45839.41145833334</v>
+        <v>45839.4103587963</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>熊先生情趣成人</t>
+          <t>鸡柳大人（镇海店）</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -944,197 +944,197 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45839.41136574074</v>
+        <v>45839.41025462963</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海庄市店)</t>
+          <t>阿四海鲜（沧海路店）</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45839.41128472222</v>
+        <v>45839.40577546296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海店)</t>
+          <t>阿四海鲜（沧海路店）</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返17</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45839.41118055556</v>
+        <v>45853.64143518519</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
+          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45852.4187037037</v>
+        <v>45852.69780092593</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
+          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45852.41721064815</v>
+        <v>45852.69980324074</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45839.40532407408</v>
+        <v>45852.69890046296</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>沈记东北锅包肉</t>
+          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45842.41239583334</v>
+        <v>45852.7002662037</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>沈记东北锅包肉（浙大宁波理工云创店）</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45842.41112268518</v>
+        <v>45839.41070601852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>天元砂锅（洋山店）</t>
+          <t>考拉可可成人</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满20返11</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45806.80737268519</v>
+        <v>45839.41145833334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣用品</t>
+          <t>熊先生情趣成人</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1151,59 +1151,59 @@
         <v>7</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45839.40849537037</v>
+        <v>45839.41136574074</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>柳巷螺蛳粉（天伦广场店）</t>
+          <t>考拉可可情趣成人用品(镇海庄市店)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满25返15</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45839.40891203703</v>
+        <v>45839.41128472222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>渝拌川重庆凉拌菜（明楼街道店）</t>
+          <t>考拉可可情趣成人用品(镇海店)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45838.40275462963</v>
+        <v>45839.41118055556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>渝拌川重庆凉拌菜（朝晖路店）</t>
+          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1213,20 +1213,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满25返10</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45838.40118055556</v>
+        <v>45852.4187037037</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>阿拌达·拌鸡腿(北仑店)</t>
+          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1236,20 +1236,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45839.40376157407</v>
+        <v>45853.42761574074</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>阿拌达·拌鸡腿(北仑店)</t>
+          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1266,13 +1266,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45839.40354166667</v>
+        <v>45852.41721064815</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>韩记江西农家小炒</t>
+          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1282,43 +1282,43 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满20返17</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45841.40256944444</v>
+        <v>45853.42721064815</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>饱好吃·鲜肉包子铺</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满25返17</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45844.50350694444</v>
+        <v>45839.40532407408</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>华三爷拌面（明空间店）</t>
+          <t>沈记东北锅包肉</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1328,20 +1328,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满20返12</t>
+          <t>满20返10</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45849.46627314815</v>
+        <v>45842.41239583334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>何包记|小笼包•撒汤•粥(高新店）</t>
+          <t>沈记东北锅包肉</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1351,20 +1351,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45852.5428587963</v>
+        <v>45853.64412037037</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>紫燕百味鸡（蓝天路店）</t>
+          <t>沈记东北锅包肉（浙大宁波理工云创店）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1381,13 +1381,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45847.81822916667</v>
+        <v>45842.41112268518</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>紫燕百味鸡（蓝天路店）</t>
+          <t>沈记东北锅包肉（浙大宁波理工云创店）</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1397,20 +1397,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45847.8184375</v>
+        <v>45853.64346064815</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>饱好吃</t>
+          <t>天元砂锅（洋山店）</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1420,20 +1420,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>满25返17</t>
+          <t>满20返11</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45848.46263888889</v>
+        <v>45806.80737268519</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>向海兰</t>
+          <t>天元砂锅（洋山店）</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1443,36 +1443,565 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>满25返17</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45852.39908564815</v>
+        <v>45853.64503472222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>多巴胺女王成人情趣用品</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45839.40849537037</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>柳巷螺蛳粉（天伦广场店）</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>满25返15</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45839.40891203703</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>柳巷螺蛳粉（天伦广场店）</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>满25返17</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45853.42576388889</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>渝拌川重庆凉拌菜（明楼街道店）</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45853.64746527778</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>渝拌川重庆凉拌菜（朝晖路店）</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>满25返10</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45838.40118055556</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>渝拌川重庆凉拌菜（朝晖路店）</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>满25返12</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45853.64733796296</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>阿拌达·拌鸡腿(北仑店)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45839.40376157407</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>阿拌达·拌鸡腿(北仑店)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45853.65118055556</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>阿拌达·拌鸡腿(北仑店)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45839.40354166667</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>阿拌达·拌鸡腿(北仑店)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45853.65092592593</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>韩记江西农家小炒</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>满20返17</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45841.40256944444</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>杨铭宇黄焖鸡米饭(新东湖花园店)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45853.39976851852</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>杨铭宇黄焖鸡米饭(新东湖花园店)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45853.42854166667</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>杨铭宇黄焖鸡米饭（东湖花园店）</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45853.39894675926</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>杨铭宇黄焖鸡米饭（东湖花园店）</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45853.42835648148</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>杨铭宇黄焖鸡（东湖花园店）</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>满20返10</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45853.39928240741</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>杨铭宇黄焖鸡（东湖花园店）</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45853.4281712963</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>饱好吃·鲜肉包子铺</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>满25返17</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45844.50350694444</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>饱好吃·鲜肉包子铺</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>满25返20</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45853.65422453704</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>华三爷拌面（明空间店）</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45849.46627314815</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>华三爷拌面（明空间店）</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45853.65490740741</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>饱好吃</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>满25返17</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45848.46263888889</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>饱好吃</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>满25返20</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45853.65391203704</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>蜜雪冰城(天一广场店)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>奶茶甜点</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>满10返10</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E68" s="2" t="n">
         <v>45852.58827546296</v>
       </c>
     </row>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,490 +467,490 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉</t>
+          <t>熊子文烙饼卷肉（宁大步行街店）</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45839.40471064814</v>
+        <v>45853.63173611111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉</t>
+          <t>熊子文烙饼卷肉（宁大步行街店）</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45843.45313657408</v>
+        <v>45853.63204861111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉</t>
+          <t>柳巷.螺蛳粉（天伦广场店）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45853.63076388889</v>
+        <v>45853.4264699074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45853.63125</v>
+        <v>45853.63796296297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉（宁大步行街店）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45839.40408564815</v>
+        <v>45853.63778935185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉（宁大步行街店）</t>
+          <t>阿四饭店</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45843.4528125</v>
+        <v>45859.72484953704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉（宁大步行街店）</t>
+          <t>鸡柳大人（鸡柳·年糕·薯条·云创店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45853.63173611111</v>
+        <v>45870.42342592592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉（宁大步行街店）</t>
+          <t>鸡柳大人（云创店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45853.63204861111</v>
+        <v>45839.41185185185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>柳巷.螺蛳粉（天伦广场店）</t>
+          <t>鸡柳大人（镇海店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满30返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45839.41208333334</v>
+        <v>45839.4103587963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>柳巷.螺蛳粉（天伦广场店）</t>
+          <t>鸡柳大人（镇海店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满30返15</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45853.4264699074</v>
+        <v>45839.41025462963</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>阿四海鲜（沧海路店）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45839.41226851852</v>
+        <v>45853.64143518519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45853.63796296297</v>
+        <v>45867.67273148148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满25返11</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45839.40521990741</v>
+        <v>45867.67179398148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45853.63778935185</v>
+        <v>45870.41383101852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>阿四饭店</t>
+          <t>考拉可可成人</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满20返17</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45839.41168981481</v>
+        <v>45839.41145833334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>阿四海鲜饭店（商务套餐店）</t>
+          <t>熊先生情趣成人用品（镇海店·飞机杯情趣内衣）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45839.40952546296</v>
+        <v>45839.41136574074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>阿四海鲜饭店（商务套餐店）</t>
+          <t>考拉可可情趣成人用品(镇海庄市店)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满20返17</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45853.64087962963</v>
+        <v>45839.41128472222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>鸡柳大人（鸡柳·年糕·薯条·云创店）</t>
+          <t>考拉可可情趣成人用品(镇海店)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45839.40491898148</v>
+        <v>45839.41118055556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>鸡柳大人（云创店）</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45839.41185185185</v>
+        <v>45839.40532407408</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>鸡柳大人（镇海店）</t>
+          <t>正新鸡排(卖鱼路店)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满12返12</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45839.4103587963</v>
+        <v>45870.47539351852</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>鸡柳大人（镇海店）</t>
+          <t>正新鸡排</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满12返12</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45839.41025462963</v>
+        <v>45870.47533564815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>阿四海鲜（沧海路店）</t>
+          <t>沈记东北锅包肉</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -960,20 +960,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满20返14</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45839.40577546296</v>
+        <v>45853.64412037037</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>阿四海鲜（沧海路店）</t>
+          <t>沈记东北锅包肉（浙大宁波理工云创店）</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -983,227 +983,227 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满20返17</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45853.64143518519</v>
+        <v>45853.64346064815</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
+          <t>多巴胺女王成人情趣用品</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45852.69780092593</v>
+        <v>45839.40849537037</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
+          <t>柳巷螺蛳粉（天伦广场店）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满17返17</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45852.69980324074</v>
+        <v>45853.42576388889</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
+          <t>阿拌达·拌鸡腿(北仑店)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满12返12</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45852.69890046296</v>
+        <v>45853.65092592593</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
+          <t>杨铭宇黄焖鸡米饭(新东湖花园店)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45852.7002662037</v>
+        <v>45866.40878472223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>杨铭宇黄焖鸡米饭（东湖花园店）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45839.41070601852</v>
+        <v>45866.40892361111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>考拉可可成人</t>
+          <t>杨铭宇黄焖鸡（东湖花园店）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45839.41145833334</v>
+        <v>45866.4090162037</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>熊先生情趣成人</t>
+          <t>饱好吃</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返20</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45839.41136574074</v>
+        <v>45853.65391203704</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海庄市店)</t>
+          <t>熊子文烙饼卷肉</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45839.41128472222</v>
+        <v>45854.41350694445</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海店)</t>
+          <t>熊子文烙饼卷肉</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45839.41118055556</v>
+        <v>45854.41369212963</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
+          <t>没事就吃猪脚饭</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1213,20 +1213,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45852.4187037037</v>
+        <v>45870.42516203703</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
+          <t>没事就吃猪脚饭</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1236,20 +1236,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45853.42761574074</v>
+        <v>45870.42538194444</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
+          <t>大熊炸鸡</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1259,20 +1259,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满12返12</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45852.41721064815</v>
+        <v>45870.42285879629</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>赵忠华麻辣烫·麻辣拌（钱湖北路店）</t>
+          <t>一日记·日式鳗鱼肥牛猪排饭</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1282,43 +1282,43 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45853.42721064815</v>
+        <v>45867.44743055556</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>一日记日式鳗鱼肥牛猪排饭</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满13返13</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45839.40532407408</v>
+        <v>45867.44729166666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>沈记东北锅包肉</t>
+          <t>牛来何生烫牛肉汤</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1328,43 +1328,43 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45842.41239583334</v>
+        <v>45870.40927083333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>沈记东北锅包肉</t>
+          <t>GoldenHour Cafe&amp;Bar日落时分咖啡酒吧</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45853.64412037037</v>
+        <v>45867.45922453704</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>沈记东北锅包肉（浙大宁波理工云创店）</t>
+          <t>干锅大人·现炒干锅</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1374,20 +1374,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>满20返10</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45842.41112268518</v>
+        <v>45870.41596064815</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>沈记东北锅包肉（浙大宁波理工云创店）</t>
+          <t>干锅大人·现炒干锅</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1397,20 +1397,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45853.64346064815</v>
+        <v>45870.41630787037</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>天元砂锅（洋山店）</t>
+          <t>干锅大人·现炒干锅</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1420,20 +1420,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>满20返11</t>
+          <t>满15返15</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45806.80737268519</v>
+        <v>45870.58626157408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>天元砂锅（洋山店）</t>
+          <t>黄手艺冒菜（高新店）</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1443,566 +1443,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满18返18</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45853.64503472222</v>
+        <v>45870.46101851852</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣用品</t>
+          <t>鸡柳大人(吾悦店)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满10返10</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45839.40849537037</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>柳巷螺蛳粉（天伦广场店）</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>满25返15</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>45839.40891203703</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>柳巷螺蛳粉（天伦广场店）</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>满25返17</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>45853.42576388889</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>渝拌川重庆凉拌菜（明楼街道店）</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>13</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>45853.64746527778</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>渝拌川重庆凉拌菜（朝晖路店）</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>满25返10</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>15</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>45838.40118055556</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>渝拌川重庆凉拌菜（朝晖路店）</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>满25返12</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>13</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>45853.64733796296</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>阿拌达·拌鸡腿(北仑店)</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>10</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>45839.40376157407</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>阿拌达·拌鸡腿(北仑店)</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>满20返12</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>45853.65118055556</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>阿拌达·拌鸡腿(北仑店)</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>45839.40354166667</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>阿拌达·拌鸡腿(北仑店)</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>满20返12</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>45853.65092592593</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>韩记江西农家小炒</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>满20返17</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>45841.40256944444</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>杨铭宇黄焖鸡米饭(新东湖花园店)</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>45853.39976851852</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>杨铭宇黄焖鸡米饭(新东湖花园店)</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>满20返13</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>7</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>45853.42854166667</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>杨铭宇黄焖鸡米饭（东湖花园店）</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>45853.39894675926</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>杨铭宇黄焖鸡米饭（东湖花园店）</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>满20返13</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>7</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>45853.42835648148</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>杨铭宇黄焖鸡（东湖花园店）</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>满20返10</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>10</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>45853.39928240741</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>杨铭宇黄焖鸡（东湖花园店）</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>满20返13</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>7</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>45853.4281712963</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>饱好吃·鲜肉包子铺</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>满25返17</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>8</v>
-      </c>
-      <c r="E62" s="2" t="n">
-        <v>45844.50350694444</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>饱好吃·鲜肉包子铺</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>满25返20</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>45853.65422453704</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>华三爷拌面（明空间店）</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>满20返12</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>8</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>45849.46627314815</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>华三爷拌面（明空间店）</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>满20返15</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>5</v>
-      </c>
-      <c r="E65" s="2" t="n">
-        <v>45853.65490740741</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>饱好吃</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>满25返17</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>8</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>45848.46263888889</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>饱好吃</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>满25返20</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>5</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>45853.65391203704</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>蜜雪冰城(天一广场店)</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>奶茶甜点</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>满10返10</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>45852.58827546296</v>
+        <v>45870.52001157407</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>满15返15</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>45853.63173611111</v>
@@ -500,11 +500,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>满15返15</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>45853.63204861111</v>
@@ -513,7 +513,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>柳巷.螺蛳粉（天伦广场店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,20 +523,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满15返15</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45853.4264699074</v>
+        <v>45853.63796296297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -546,66 +546,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满25返13</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45853.63796296297</v>
+        <v>45853.63778935185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>阿四饭店</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45853.63778935185</v>
+        <v>45859.72484953704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>阿四饭店</t>
+          <t>鸡柳大人（鸡柳·年糕·薯条·云创店）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>满15返15</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45859.72484953704</v>
+        <v>45870.42342592592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>鸡柳大人（鸡柳·年糕·薯条·云创店）</t>
+          <t>鸡柳大人（云创店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -615,20 +615,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45870.42342592592</v>
+        <v>45839.41185185185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>鸡柳大人（云创店）</t>
+          <t>鸡柳大人（镇海店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -638,14 +638,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45839.41185185185</v>
+        <v>45839.4103587963</v>
       </c>
     </row>
     <row r="10">
@@ -661,66 +661,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45839.4103587963</v>
+        <v>45839.41025462963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>鸡柳大人（镇海店）</t>
+          <t>阿四海鲜（沧海路店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45839.41025462963</v>
+        <v>45853.64143518519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>阿四海鲜（沧海路店）</t>
+          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>满15返15</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45853.64143518519</v>
+        <v>45867.67273148148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
+          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -730,43 +730,43 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45867.67273148148</v>
+        <v>45867.67179398148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>奶茶甜品</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45867.67179398148</v>
+        <v>45870.41383101852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>考拉可可成人</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -776,20 +776,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45870.41383101852</v>
+        <v>45839.41145833334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>考拉可可成人</t>
+          <t>熊先生情趣成人用品（镇海店·飞机杯情趣内衣）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -799,20 +799,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45839.41145833334</v>
+        <v>45839.41136574074</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>熊先生情趣成人用品（镇海店·飞机杯情趣内衣）</t>
+          <t>考拉可可情趣成人用品(镇海庄市店)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -822,20 +822,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45839.41136574074</v>
+        <v>45839.41128472222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海庄市店)</t>
+          <t>考拉可可情趣成人用品(镇海店)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -845,20 +845,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45839.41128472222</v>
+        <v>45839.41118055556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海店)</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -868,20 +868,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45839.41118055556</v>
+        <v>45839.40532407408</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>多巴胺女王成人情趣用品</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -891,66 +891,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45839.40532407408</v>
+        <v>45839.40849537037</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>正新鸡排(卖鱼路店)</t>
+          <t>杨铭宇黄焖鸡米饭(新东湖花园店)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>满12返12</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45870.47539351852</v>
+        <v>45880.4844212963</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>正新鸡排</t>
+          <t>杨铭宇黄焖鸡米饭（东湖花园店）</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>满12返12</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45870.47533564815</v>
+        <v>45880.48430555555</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>沈记东北锅包肉</t>
+          <t>杨铭宇黄焖鸡（东湖花园店）</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -960,66 +960,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45853.64412037037</v>
+        <v>45880.48416666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>沈记东北锅包肉（浙大宁波理工云创店）</t>
+          <t>熊子文烙饼卷肉</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45853.64346064815</v>
+        <v>45854.41350694445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣用品</t>
+          <t>熊子文烙饼卷肉</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>零售电商</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45839.40849537037</v>
+        <v>45854.41369212963</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>柳巷螺蛳粉（天伦广场店）</t>
+          <t>一日记·日式鳗鱼肥牛猪排饭</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1029,20 +1029,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满17返17</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45853.42576388889</v>
+        <v>45874.69283564815</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>阿拌达·拌鸡腿(北仑店)</t>
+          <t>一日记日式鳗鱼肥牛猪排饭</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1052,20 +1052,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>满12返12</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45853.65092592593</v>
+        <v>45874.69271990741</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>杨铭宇黄焖鸡米饭(新东湖花园店)</t>
+          <t>干锅大人·现炒干锅</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1075,20 +1075,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45866.40878472223</v>
+        <v>45881.41142361111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>杨铭宇黄焖鸡米饭（东湖花园店）</t>
+          <t>鸡柳大人(吾悦店)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1098,20 +1098,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满14返10</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45866.40892361111</v>
+        <v>45881.41211805555</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>杨铭宇黄焖鸡（东湖花园店）</t>
+          <t>正新鸡排（青年路店）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1121,20 +1121,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满15返11</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45866.4090162037</v>
+        <v>45881.40892361111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>饱好吃</t>
+          <t>岭南烧鸭王烧腊饭·猪脚饭</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1144,66 +1144,66 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满20返20</t>
+          <t>满15返12</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45853.65391203704</v>
+        <v>45877.45798611111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉</t>
+          <t>大熊炸鸡(城隍庙步行街店)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满15返15</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45854.41350694445</v>
+        <v>45881.41069444444</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉</t>
+          <t>宴遇厨子·木桶饭(万达店)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满15返15</t>
+          <t>满15返14</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45854.41369212963</v>
+        <v>45881.42123842592</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>没事就吃猪脚饭</t>
+          <t>卤湘湘·老街拌卤粉（鄞州店）</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1213,267 +1213,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满13返13</t>
+          <t>满18返16</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45870.42516203703</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>没事就吃猪脚饭</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>满13返13</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>45870.42538194444</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>大熊炸鸡</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>满12返12</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>45870.42285879629</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>一日记·日式鳗鱼肥牛猪排饭</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>满13返13</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>45867.44743055556</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>一日记日式鳗鱼肥牛猪排饭</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>满13返13</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>45867.44729166666</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>牛来何生烫牛肉汤</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>满15返15</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>45870.40927083333</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>GoldenHour Cafe&amp;Bar日落时分咖啡酒吧</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>奶茶甜品</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>满15返15</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>45867.45922453704</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>干锅大人·现炒干锅</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>满15返15</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>45870.41596064815</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>干锅大人·现炒干锅</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>满20返15</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>45870.41630787037</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>干锅大人·现炒干锅</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>满15返15</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>45870.58626157408</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>黄手艺冒菜（高新店）</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>满18返18</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>45870.46101851852</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>鸡柳大人(吾悦店)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>满10返10</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>45870.52001157407</v>
+        <v>45881.41489583333</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,12 +467,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉（宁大步行街店）</t>
+          <t>阿四饭店</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -484,18 +484,18 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45853.63173611111</v>
+        <v>45859.72484953704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉（宁大步行街店）</t>
+          <t>阿四海鲜饭店（商务套餐店）</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,13 +507,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45853.63204861111</v>
+        <v>45853.64087962963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>鸡柳大人（鸡柳·年糕·薯条·云创店）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,20 +523,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45853.63796296297</v>
+        <v>45870.42342592592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>鸡柳大人（云创店）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -546,43 +546,43 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>满25返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45853.63778935185</v>
+        <v>45839.41185185185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>阿四饭店</t>
+          <t>鸡柳大人（镇海店）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色料理</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45859.72484953704</v>
+        <v>45839.4103587963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>鸡柳大人（鸡柳·年糕·薯条·云创店）</t>
+          <t>鸡柳大人（镇海店）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -599,105 +599,105 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45870.42342592592</v>
+        <v>45839.41025462963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>鸡柳大人（云创店）</t>
+          <t>阿四海鲜（沧海路店）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45839.41185185185</v>
+        <v>45853.64143518519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>鸡柳大人（镇海店）</t>
+          <t>陈文鼎·黑糖珍珠奶茶（鄞州万达店）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满12返12</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45839.4103587963</v>
+        <v>45887.58799768519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>鸡柳大人（镇海店）</t>
+          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45839.41025462963</v>
+        <v>45867.67273148148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>阿四海鲜（沧海路店）</t>
+          <t>LINLEE林里·手打柠檬茶（鄞州钱湖天地店）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45853.64143518519</v>
+        <v>45885.72876157407</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶（鄞州学府一号店）</t>
+          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -714,36 +714,36 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45867.67273148148</v>
+        <v>45867.67179398148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LINLEE林里·手打柠檬茶(鄞州学府一号店)</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>奶茶甜品</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>满15返13</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45867.67179398148</v>
+        <v>45870.41383101852</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>考拉可可成人</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -760,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45870.41383101852</v>
+        <v>45839.41145833334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>考拉可可成人</t>
+          <t>熊先生情趣成人用品（镇海店·飞机杯情趣内衣）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -783,13 +783,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45839.41145833334</v>
+        <v>45839.41136574074</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>熊先生情趣成人用品（镇海店·飞机杯情趣内衣）</t>
+          <t>考拉可可情趣成人用品(镇海庄市店)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -806,13 +806,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45839.41136574074</v>
+        <v>45839.41128472222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海庄市店)</t>
+          <t>考拉可可情趣成人用品(镇海店)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -829,13 +829,13 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45839.41128472222</v>
+        <v>45839.41118055556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>考拉可可情趣成人用品(镇海店)</t>
+          <t>多巴胺女王成人情趣</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -852,13 +852,13 @@
         <v>7</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45839.41118055556</v>
+        <v>45839.40532407408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣</t>
+          <t>多巴胺女王成人情趣用品</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,18 +875,18 @@
         <v>7</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45839.40532407408</v>
+        <v>45839.40849537037</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>多巴胺女王成人情趣用品</t>
+          <t>杨铭宇黄焖鸡米饭(新东湖花园店)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>零售电商</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -898,13 +898,13 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45839.40849537037</v>
+        <v>45880.4844212963</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>杨铭宇黄焖鸡米饭(新东湖花园店)</t>
+          <t>杨铭宇黄焖鸡米饭（东湖花园店）</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -921,13 +921,13 @@
         <v>7</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45880.4844212963</v>
+        <v>45880.48430555555</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>杨铭宇黄焖鸡米饭（东湖花园店）</t>
+          <t>一日记·日式鳗鱼肥牛猪排饭</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -944,13 +944,13 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45880.48430555555</v>
+        <v>45874.69283564815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>杨铭宇黄焖鸡（东湖花园店）</t>
+          <t>一日记日式鳗鱼肥牛猪排饭</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -967,59 +967,59 @@
         <v>7</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45880.48416666667</v>
+        <v>45874.69271990741</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉</t>
+          <t>坚决不嘶哈鸭货热卤螺蛳粉</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满20返13</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45854.41350694445</v>
+        <v>45883.41506944445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>熊子文烙饼卷肉</t>
+          <t>坚决不嘶哈鸭货热卤螺蛳粉</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>特色料理</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满35返15</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45854.41369212963</v>
+        <v>45883.41515046296</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>一日记·日式鳗鱼肥牛猪排饭</t>
+          <t>坚决不嘶哈·鸭货热卤螺蛳粉</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1029,20 +1029,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满20返13</t>
+          <t>满35返15</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45874.69283564815</v>
+        <v>45883.41488425926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>一日记日式鳗鱼肥牛猪排饭</t>
+          <t>坚决不嘶哈·鸭货热卤螺蛳粉</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1059,13 +1059,13 @@
         <v>7</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45874.69271990741</v>
+        <v>45883.41498842592</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>干锅大人·现炒干锅</t>
+          <t>鸡柳大人(吾悦店)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1075,66 +1075,66 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满14返10</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45881.41142361111</v>
+        <v>45881.41211805555</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>鸡柳大人(吾悦店)</t>
+          <t>尾巴星球宠物用品（鄞州店）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>零售电商</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>满14返10</t>
+          <t>满45返35</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45881.41211805555</v>
+        <v>45881.5905324074</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>正新鸡排（青年路店）</t>
+          <t>LINLEE林里·手打柠檬茶（海曙天一广场2店）</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>满15返11</t>
+          <t>满15返13</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45881.40892361111</v>
+        <v>45885.72620370371</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>岭南烧鸭王烧腊饭·猪脚饭</t>
+          <t>农家木桶饭（小炒.马园路店）</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1144,66 +1144,66 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>满15返12</t>
+          <t>满20返15</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45877.45798611111</v>
+        <v>45885.42262731482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>大熊炸鸡(城隍庙步行街店)</t>
+          <t>日落时分咖啡Golden Hour Coffee Shop</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>满20返15</t>
+          <t>满18返14</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45881.41069444444</v>
+        <v>45884.45743055556</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>宴遇厨子·木桶饭(万达店)</t>
+          <t>日落时分咖啡Golden Hour Cafe Bar(东部新城店)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜品</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>满15返14</t>
+          <t>满18返14</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45881.42123842592</v>
+        <v>45884.45731481481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>卤湘湘·老街拌卤粉（鄞州店）</t>
+          <t>牛喜韩石锅拌饭嫩豆腐汤(文华店)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1213,14 +1213,451 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>满18返16</t>
+          <t>满20返14</t>
         </is>
       </c>
       <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45884.42023148148</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>芙気泡芙（印象城店）</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>满25返18</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45877.40293981481</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>薯滿香.鲜榨果汁（天一店）</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>奶茶甜品</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45883.57122685185</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>粤来香烧鸭面馆(鼓楼店)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45888.38657407407</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>老长沙木桶饭</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45888.38693287037</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>一碗好粉(复悦城店)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45885.42699074074</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>一碗好粉</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45885.42721064815</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>老长沙木桶饭（彩虹广场店）</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>满20返13</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45888.38706018519</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MONICAFE（咖啡·拿铁·气泡水·国医街店）</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45888.35447916666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MONICAFE·面包·咖啡·简餐(国医街店)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45888.35460648148</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>刘十八甜汤(白鹤店)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>奶茶甜品</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45888.35476851852</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>刘十八甜汤（白鹤店）</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>奶茶甜品</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45888.35497685185</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>万饿之源·烤肉拌饭</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>满15返12</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45886.45886574074</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>小E食屋·咖喱蛋包饭(天一店)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45888.41297453704</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>小E食屋·咖喱蛋包饭(天一店)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>满20返15</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45888.413125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>小E食屋·咖喱蛋包饭(天一店)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>满20返18</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>2</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>45881.41489583333</v>
+      <c r="E49" s="2" t="n">
+        <v>45888.4644212963</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>山禾粟·港式茶餐厅（宁波店）</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>满20返16</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45888.35542824074</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>残花·同仁堂养生咖啡(印象汇店)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>奶茶甜品</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>满15返15</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45888.39783564815</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>犟大叔东北大碗麻辣烫</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>满20返12</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45888.41015046297</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>牛将牛油拌饭（天一店）</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>满25返18</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45888.42619212963</v>
       </c>
     </row>
   </sheetData>
